--- a/work_hours.xlsx
+++ b/work_hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\OAMK\2019\Projects\AudioSamurai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B0B04B-A3A5-42E5-87C9-081795C02195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC75C79-8F0A-4942-9381-7295A2DD3EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lokakuu" sheetId="1" r:id="rId1"/>
@@ -77,8 +77,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -488,31 +488,31 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Aksentti1" xfId="1" builtinId="30"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,19 +848,19 @@
         <v>43766</v>
       </c>
       <c r="C3" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>43767</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -929,27 +929,27 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5">
         <f>SUM(D3:D6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="12">
         <f>SUM(G3:G6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="13">
         <f>SUM(C7:G7)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CEE12E-FA02-47A2-8FAB-9C1BBCEE2490}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2390,23 +2390,23 @@
     <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <f>SUM(Lokakuu!C7,Marraskuu!C33,Joulukuu!C34)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="31">
         <f>SUM(Lokakuu!D7,Marraskuu!D33,Joulukuu!D34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="31">
         <f>SUM(Lokakuu!E7,Marraskuu!E33,Joulukuu!E34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="31">
         <f>SUM(Lokakuu!F7,Marraskuu!F33,Joulukuu!F34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="32">
         <f>SUM(Lokakuu!G7,Marraskuu!G33,Joulukuu!G34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/work_hours.xlsx
+++ b/work_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\OAMK\2019\Projects\AudioSamurai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC75C79-8F0A-4942-9381-7295A2DD3EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBA276-CBA8-4EAE-9548-2F9C5624C979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
         <v>43768</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>43769</v>
       </c>
       <c r="C6" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(C3:C6)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <f>SUM(D3:D6)</f>
@@ -949,7 +949,7 @@
       </c>
       <c r="H7" s="13">
         <f>SUM(C7:G7)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
     <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <f>SUM(Lokakuu!C7,Marraskuu!C33,Joulukuu!C34)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" s="31">
         <f>SUM(Lokakuu!D7,Marraskuu!D33,Joulukuu!D34)</f>

--- a/work_hours.xlsx
+++ b/work_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\OAMK\2019\Projects\AudioSamurai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBA276-CBA8-4EAE-9548-2F9C5624C979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D708F6-3A67-45AA-86E7-B42F52B48C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lokakuu" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Päivämäärä</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Joulukuu</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Weekend</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -471,15 +483,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -488,18 +501,11 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
@@ -513,11 +519,27 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="18" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="19" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20 % - Aksentti1" xfId="1" builtinId="30"/>
     <cellStyle name="60 % - Aksentti1" xfId="2" builtinId="32"/>
     <cellStyle name="60 % - Aksentti4" xfId="4" builtinId="44"/>
+    <cellStyle name="60 % - Aksentti5" xfId="6" builtinId="48"/>
     <cellStyle name="Aksentti2" xfId="3" builtinId="33"/>
     <cellStyle name="Aksentti5" xfId="5" builtinId="45"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -798,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +837,12 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -839,91 +861,97 @@
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>43766</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="27">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="27">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="27">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>43767</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="26">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>43768</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="26">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>43769</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
@@ -943,16 +971,16 @@
         <f>SUM(F3:F6)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <f>SUM(G3:G6)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <f>SUM(C7:G7)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
@@ -963,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCDDAE7-62CC-49A9-B1E9-554C2C19FEA9}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,631 +1009,637 @@
     <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>43770</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+      <c r="C3" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>43771</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>43772</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>43773</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>43774</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>43775</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>43776</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>43777</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>43778</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>43779</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="C12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>43780</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>43781</v>
       </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>43782</v>
       </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
         <v>43783</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>43784</v>
       </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>43785</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>43786</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="B20" s="10">
         <v>43787</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="10">
         <v>43788</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="10">
         <v>43789</v>
       </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="10">
         <v>43790</v>
       </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="10">
         <v>43791</v>
       </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="10">
         <v>43792</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="C25" s="34">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <v>43793</v>
       </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="C26" s="34">
+        <v>0</v>
+      </c>
+      <c r="D26" s="35">
+        <v>0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+      <c r="B27" s="10">
         <v>43794</v>
       </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
+      <c r="B28" s="10">
         <v>43795</v>
       </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+      <c r="B29" s="10">
         <v>43796</v>
       </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
+      <c r="B30" s="10">
         <v>43797</v>
       </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
+      <c r="B31" s="10">
         <v>43798</v>
       </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
+      <c r="B32" s="10">
         <v>43799</v>
       </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="C32" s="34">
+        <v>0</v>
+      </c>
+      <c r="D32" s="35">
+        <v>0</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="36">
         <v>0</v>
       </c>
     </row>
@@ -1613,29 +1647,29 @@
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="23">
-        <f>SUM(C30:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
-        <f>SUM(D30:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <f>SUM(E30:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <f>SUM(F30:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="24">
-        <f>SUM(G30:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
+      <c r="C33" s="16">
+        <f>SUM(C3:C32)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D33" s="16">
+        <f>SUM(D3:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <f>SUM(E3:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <f>SUM(F3:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="17">
+        <f>SUM(G3:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
         <f>SUM(C33:G33)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1645,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CEE12E-FA02-47A2-8FAB-9C1BBCEE2490}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,651 +1697,657 @@
     <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>43800</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
         <v>43801</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>43802</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
         <v>43803</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
         <v>43804</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
         <v>43805</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
         <v>43806</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
         <v>43807</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
         <v>43808</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
         <v>43809</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
         <v>43810</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
         <v>43811</v>
       </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
         <v>43812</v>
       </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
         <v>43813</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="C16" s="34">
+        <v>0</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>43814</v>
       </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="C17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>43815</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>43816</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>43817</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>43818</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <v>43819</v>
       </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <v>43820</v>
       </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="C23" s="34">
+        <v>0</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <v>43821</v>
       </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <v>43822</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <v>43823</v>
       </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <v>43824</v>
       </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>43825</v>
       </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <v>43826</v>
       </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+      <c r="B30" s="12">
         <v>43827</v>
       </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0</v>
+      </c>
+      <c r="G30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
+      <c r="B31" s="12">
         <v>43828</v>
       </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <v>43829</v>
       </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <v>43830</v>
       </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2315,27 +2355,27 @@
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="23">
-        <f>SUM(C30:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="23">
-        <f>SUM(D30:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <f>SUM(E30:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <f>SUM(F30:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="24">
-        <f>SUM(G30:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
+      <c r="C34" s="16">
+        <f>SUM(C3:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <f>SUM(D3:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <f>SUM(E3:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <f>SUM(F3:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <f>SUM(G3:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
         <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
@@ -2349,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455931E2-57E5-413C-A79E-DBE351CFB3A0}">
   <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,48 +2403,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="26"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30">
+      <c r="B5" s="23">
         <f>SUM(Lokakuu!C7,Marraskuu!C33,Joulukuu!C34)</f>
-        <v>16</v>
-      </c>
-      <c r="C5" s="31">
+        <v>20.5</v>
+      </c>
+      <c r="C5" s="24">
         <f>SUM(Lokakuu!D7,Marraskuu!D33,Joulukuu!D34)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="24">
         <f>SUM(Lokakuu!E7,Marraskuu!E33,Joulukuu!E34)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="24">
         <f>SUM(Lokakuu!F7,Marraskuu!F33,Joulukuu!F34)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="25">
         <f>SUM(Lokakuu!G7,Marraskuu!G33,Joulukuu!G34)</f>
         <v>2</v>
       </c>
